--- a/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.8-40-4.xlsx
+++ b/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.8-40-4.xlsx
@@ -40,16 +40,16 @@
     <t>requestCost</t>
   </si>
   <si>
+    <t>C,D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>A,B</t>
   </si>
   <si>
-    <t>C,D</t>
-  </si>
-  <si>
     <t>A,C</t>
-  </si>
-  <si>
-    <t>E</t>
   </si>
 </sst>
 </file>
@@ -441,103 +441,103 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B2">
+        <v>68</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
         <v>29</v>
       </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
       <c r="E2">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="F2">
-        <v>239</v>
+        <v>170</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F3">
-        <v>463</v>
+        <v>318</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E4">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="F4">
-        <v>497</v>
+        <v>343</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="F5">
-        <v>537</v>
+        <v>374</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -545,51 +545,51 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>307</v>
+        <v>399</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E6">
-        <v>307</v>
+        <v>399</v>
       </c>
       <c r="F6">
-        <v>508</v>
+        <v>1483</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B7">
-        <v>590</v>
+        <v>453</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7">
-        <v>590</v>
+        <v>453</v>
       </c>
       <c r="F7">
-        <v>767</v>
+        <v>544</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -597,129 +597,129 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B8">
-        <v>688</v>
+        <v>592</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>688</v>
+        <v>592</v>
       </c>
       <c r="F8">
-        <v>864</v>
+        <v>700</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>852</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>852</v>
+      </c>
+      <c r="F9">
+        <v>962</v>
+      </c>
+      <c r="G9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>691</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>691</v>
-      </c>
-      <c r="F9">
-        <v>971</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>827</v>
+        <v>880</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>827</v>
+        <v>880</v>
       </c>
       <c r="F10">
-        <v>1074</v>
+        <v>2361</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B11">
-        <v>1003</v>
+        <v>1032</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>1003</v>
+        <v>1032</v>
       </c>
       <c r="F11">
-        <v>1293</v>
+        <v>1139</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B12">
-        <v>1182</v>
+        <v>1060</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1182</v>
+        <v>1060</v>
       </c>
       <c r="F12">
-        <v>1363</v>
+        <v>2414</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -727,207 +727,207 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>1186</v>
+        <v>1145</v>
       </c>
       <c r="C13">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>1186</v>
+        <v>1145</v>
       </c>
       <c r="F13">
-        <v>1439</v>
+        <v>2719</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>1220</v>
+        <v>1241</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E14">
-        <v>1220</v>
+        <v>1241</v>
       </c>
       <c r="F14">
-        <v>2748</v>
+        <v>1328</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B15">
-        <v>1223</v>
+        <v>1455</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>1223</v>
+        <v>1455</v>
       </c>
       <c r="F15">
-        <v>1473</v>
+        <v>1548</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B16">
-        <v>1280</v>
+        <v>1740</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E16">
-        <v>1280</v>
+        <v>1740</v>
       </c>
       <c r="F16">
-        <v>2912</v>
+        <v>2720</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>1297</v>
+        <v>1764</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1297</v>
+        <v>1764</v>
       </c>
       <c r="F17">
-        <v>2545</v>
+        <v>1841</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B18">
-        <v>1347</v>
+        <v>1765</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E18">
-        <v>1347</v>
+        <v>1765</v>
       </c>
       <c r="F18">
-        <v>2865</v>
+        <v>1911</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>1785</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
         <v>15</v>
       </c>
-      <c r="B19">
-        <v>1588</v>
-      </c>
-      <c r="C19">
-        <v>22</v>
-      </c>
-      <c r="D19">
-        <v>13</v>
-      </c>
       <c r="E19">
-        <v>1588</v>
+        <v>1785</v>
       </c>
       <c r="F19">
-        <v>1758</v>
+        <v>2829</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>1596</v>
+        <v>2030</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>1596</v>
+        <v>2030</v>
       </c>
       <c r="F20">
-        <v>1750</v>
+        <v>2116</v>
       </c>
       <c r="G20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -938,100 +938,100 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>1693</v>
+        <v>2063</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>1693</v>
+        <v>2063</v>
       </c>
       <c r="F21">
-        <v>1984</v>
+        <v>2141</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>1757</v>
+        <v>2122</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E22">
-        <v>1757</v>
+        <v>2122</v>
       </c>
       <c r="F22">
-        <v>1975</v>
+        <v>2242</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23">
-        <v>1958</v>
+        <v>2172</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E23">
-        <v>1958</v>
+        <v>2172</v>
       </c>
       <c r="F23">
-        <v>2245</v>
+        <v>4008</v>
       </c>
       <c r="G23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B24">
-        <v>1996</v>
+        <v>2191</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E24">
-        <v>1996</v>
+        <v>2191</v>
       </c>
       <c r="F24">
-        <v>2191</v>
+        <v>3446</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1039,77 +1039,77 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B25">
-        <v>2104</v>
+        <v>2296</v>
       </c>
       <c r="C25">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E25">
-        <v>2104</v>
+        <v>2296</v>
       </c>
       <c r="F25">
-        <v>3427</v>
+        <v>2429</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B26">
-        <v>2132</v>
+        <v>2447</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D26">
         <v>25</v>
       </c>
       <c r="E26">
-        <v>2132</v>
+        <v>2447</v>
       </c>
       <c r="F26">
-        <v>2392</v>
+        <v>3775</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B27">
-        <v>2218</v>
+        <v>2518</v>
       </c>
       <c r="C27">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E27">
-        <v>2218</v>
+        <v>2518</v>
       </c>
       <c r="F27">
-        <v>2426</v>
+        <v>3827</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -1117,158 +1117,158 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B28">
-        <v>2302</v>
+        <v>2527</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E28">
-        <v>2302</v>
+        <v>2527</v>
       </c>
       <c r="F28">
-        <v>3842</v>
+        <v>2679</v>
       </c>
       <c r="G28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>2464</v>
+        <v>2568</v>
       </c>
       <c r="C29">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="E29">
-        <v>2464</v>
+        <v>2568</v>
       </c>
       <c r="F29">
-        <v>3804</v>
+        <v>2657</v>
       </c>
       <c r="G29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>2601</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>22</v>
+      </c>
+      <c r="E30">
+        <v>2601</v>
+      </c>
+      <c r="F30">
+        <v>2706</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30">
         <v>1</v>
-      </c>
-      <c r="B30">
-        <v>2746</v>
-      </c>
-      <c r="C30">
-        <v>18</v>
-      </c>
-      <c r="D30">
-        <v>20</v>
-      </c>
-      <c r="E30">
-        <v>2746</v>
-      </c>
-      <c r="F30">
-        <v>2974</v>
-      </c>
-      <c r="G30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30">
-        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B31">
-        <v>2811</v>
+        <v>2759</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D31">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>2811</v>
+        <v>2759</v>
       </c>
       <c r="F31">
-        <v>3010</v>
+        <v>2836</v>
       </c>
       <c r="G31" t="s">
         <v>9</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B32">
-        <v>2912</v>
+        <v>2806</v>
       </c>
       <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32">
         <v>19</v>
       </c>
-      <c r="D32">
-        <v>33</v>
-      </c>
       <c r="E32">
-        <v>2912</v>
+        <v>2806</v>
       </c>
       <c r="F32">
-        <v>3194</v>
+        <v>4459</v>
       </c>
       <c r="G32" t="s">
         <v>8</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B33">
-        <v>2933</v>
+        <v>2835</v>
       </c>
       <c r="C33">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E33">
-        <v>2933</v>
+        <v>2835</v>
       </c>
       <c r="F33">
-        <v>3097</v>
+        <v>2964</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,100 +1276,100 @@
         <v>29</v>
       </c>
       <c r="B34">
-        <v>3026</v>
+        <v>2849</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D34">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E34">
-        <v>3026</v>
+        <v>2849</v>
       </c>
       <c r="F34">
-        <v>3211</v>
+        <v>3000</v>
       </c>
       <c r="G34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>3065</v>
+        <v>2908</v>
       </c>
       <c r="C35">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E35">
-        <v>3065</v>
+        <v>2908</v>
       </c>
       <c r="F35">
-        <v>3346</v>
+        <v>3020</v>
       </c>
       <c r="G35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B36">
-        <v>3087</v>
+        <v>3008</v>
       </c>
       <c r="C36">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E36">
-        <v>3087</v>
+        <v>3008</v>
       </c>
       <c r="F36">
-        <v>3254</v>
+        <v>3118</v>
       </c>
       <c r="G36" t="s">
         <v>9</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>3199</v>
+      </c>
+      <c r="C37">
         <v>17</v>
       </c>
-      <c r="B37">
-        <v>3278</v>
-      </c>
-      <c r="C37">
-        <v>14</v>
-      </c>
       <c r="D37">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E37">
-        <v>3278</v>
+        <v>3199</v>
       </c>
       <c r="F37">
-        <v>3446</v>
+        <v>4894</v>
       </c>
       <c r="G37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -1380,74 +1380,74 @@
         <v>30</v>
       </c>
       <c r="B38">
-        <v>3345</v>
+        <v>3284</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D38">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E38">
-        <v>3345</v>
+        <v>3284</v>
       </c>
       <c r="F38">
-        <v>3630</v>
+        <v>4627</v>
       </c>
       <c r="G38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B39">
-        <v>3498</v>
+        <v>3350</v>
       </c>
       <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>3350</v>
+      </c>
+      <c r="F39">
+        <v>4782</v>
+      </c>
+      <c r="G39" t="s">
         <v>10</v>
       </c>
-      <c r="D39">
-        <v>13</v>
-      </c>
-      <c r="E39">
-        <v>3498</v>
-      </c>
-      <c r="F39">
-        <v>3672</v>
-      </c>
-      <c r="G39" t="s">
-        <v>8</v>
-      </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B40">
-        <v>3536</v>
+        <v>3518</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D40">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E40">
-        <v>3536</v>
+        <v>3518</v>
       </c>
       <c r="F40">
-        <v>3751</v>
+        <v>3664</v>
       </c>
       <c r="G40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -1455,28 +1455,28 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B41">
-        <v>3549</v>
+        <v>3553</v>
       </c>
       <c r="C41">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E41">
-        <v>3549</v>
+        <v>3553</v>
       </c>
       <c r="F41">
-        <v>3762</v>
+        <v>3680</v>
       </c>
       <c r="G41" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
